--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.6149122549475</v>
+        <v>23.54682633333333</v>
       </c>
       <c r="H2">
-        <v>17.6149122549475</v>
+        <v>70.640479</v>
       </c>
       <c r="I2">
-        <v>0.5907811136696908</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="J2">
-        <v>0.5907811136696908</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.1347004121565</v>
+        <v>32.8453</v>
       </c>
       <c r="N2">
-        <v>30.1347004121565</v>
+        <v>98.5359</v>
       </c>
       <c r="O2">
-        <v>0.6468486015250671</v>
+        <v>0.6312643453007685</v>
       </c>
       <c r="P2">
-        <v>0.6468486015250671</v>
+        <v>0.6312643453007686</v>
       </c>
       <c r="Q2">
-        <v>530.8201035892671</v>
+        <v>773.4025749662334</v>
       </c>
       <c r="R2">
-        <v>530.8201035892671</v>
+        <v>6960.623174696099</v>
       </c>
       <c r="S2">
-        <v>0.3821459371846612</v>
+        <v>0.3813428003879932</v>
       </c>
       <c r="T2">
-        <v>0.3821459371846612</v>
+        <v>0.3813428003879932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.6149122549475</v>
+        <v>23.54682633333333</v>
       </c>
       <c r="H3">
-        <v>17.6149122549475</v>
+        <v>70.640479</v>
       </c>
       <c r="I3">
-        <v>0.5907811136696908</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="J3">
-        <v>0.5907811136696908</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.502163147991211</v>
+        <v>0.5268563333333334</v>
       </c>
       <c r="N3">
-        <v>0.502163147991211</v>
+        <v>1.580569</v>
       </c>
       <c r="O3">
-        <v>0.01077905290488651</v>
+        <v>0.0101258206906081</v>
       </c>
       <c r="P3">
-        <v>0.01077905290488651</v>
+        <v>0.0101258206906081</v>
       </c>
       <c r="Q3">
-        <v>8.845559789533398</v>
+        <v>12.40579458361678</v>
       </c>
       <c r="R3">
-        <v>8.845559789533398</v>
+        <v>111.652151252551</v>
       </c>
       <c r="S3">
-        <v>0.006368060879453365</v>
+        <v>0.006116944267687715</v>
       </c>
       <c r="T3">
-        <v>0.006368060879453365</v>
+        <v>0.006116944267687718</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.6149122549475</v>
+        <v>23.54682633333333</v>
       </c>
       <c r="H4">
-        <v>17.6149122549475</v>
+        <v>70.640479</v>
       </c>
       <c r="I4">
-        <v>0.5907811136696908</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="J4">
-        <v>0.5907811136696908</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0444938181218727</v>
+        <v>0.046433</v>
       </c>
       <c r="N4">
-        <v>0.0444938181218727</v>
+        <v>0.139299</v>
       </c>
       <c r="O4">
-        <v>0.0009550705211933589</v>
+        <v>0.0008924107054997391</v>
       </c>
       <c r="P4">
-        <v>0.0009550705211933589</v>
+        <v>0.0008924107054997394</v>
       </c>
       <c r="Q4">
-        <v>0.7837547021043806</v>
+        <v>1.093349787135667</v>
       </c>
       <c r="R4">
-        <v>0.7837547021043806</v>
+        <v>9.840148084221001</v>
       </c>
       <c r="S4">
-        <v>0.0005642376261437046</v>
+        <v>0.0005390996657182515</v>
       </c>
       <c r="T4">
-        <v>0.0005642376261437046</v>
+        <v>0.0005390996657182517</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.6149122549475</v>
+        <v>23.54682633333333</v>
       </c>
       <c r="H5">
-        <v>17.6149122549475</v>
+        <v>70.640479</v>
       </c>
       <c r="I5">
-        <v>0.5907811136696908</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="J5">
-        <v>0.5907811136696908</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.9055879148149</v>
+        <v>0.1197193333333333</v>
       </c>
       <c r="N5">
-        <v>15.9055879148149</v>
+        <v>0.359158</v>
       </c>
       <c r="O5">
-        <v>0.3414172750488532</v>
+        <v>0.002300924228931114</v>
       </c>
       <c r="P5">
-        <v>0.3414172750488532</v>
+        <v>0.002300924228931115</v>
       </c>
       <c r="Q5">
-        <v>280.1755354828178</v>
+        <v>2.819010350742444</v>
       </c>
       <c r="R5">
-        <v>280.1755354828178</v>
+        <v>25.371093156682</v>
       </c>
       <c r="S5">
-        <v>0.2017028779794326</v>
+        <v>0.001389973781147286</v>
       </c>
       <c r="T5">
-        <v>0.2017028779794326</v>
+        <v>0.001389973781147286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.286753887339261</v>
+        <v>23.54682633333333</v>
       </c>
       <c r="H6">
-        <v>0.286753887339261</v>
+        <v>70.640479</v>
       </c>
       <c r="I6">
-        <v>0.009617350257525114</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="J6">
-        <v>0.009617350257525114</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>30.1347004121565</v>
+        <v>0.1696553333333334</v>
       </c>
       <c r="N6">
-        <v>30.1347004121565</v>
+        <v>0.508966</v>
       </c>
       <c r="O6">
-        <v>0.6468486015250671</v>
+        <v>0.003260660213895148</v>
       </c>
       <c r="P6">
-        <v>0.6468486015250671</v>
+        <v>0.003260660213895149</v>
       </c>
       <c r="Q6">
-        <v>8.641242486989908</v>
+        <v>3.994844670523778</v>
       </c>
       <c r="R6">
-        <v>8.641242486989908</v>
+        <v>35.953602034714</v>
       </c>
       <c r="S6">
-        <v>0.006220969564456864</v>
+        <v>0.001969744222585629</v>
       </c>
       <c r="T6">
-        <v>0.006220969564456864</v>
+        <v>0.00196974422258563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.286753887339261</v>
+        <v>23.54682633333333</v>
       </c>
       <c r="H7">
-        <v>0.286753887339261</v>
+        <v>70.640479</v>
       </c>
       <c r="I7">
-        <v>0.009617350257525114</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="J7">
-        <v>0.009617350257525114</v>
+        <v>0.604093678388094</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.502163147991211</v>
+        <v>18.323012</v>
       </c>
       <c r="N7">
-        <v>0.502163147991211</v>
+        <v>54.969036</v>
       </c>
       <c r="O7">
-        <v>0.01077905290488651</v>
+        <v>0.3521558388602973</v>
       </c>
       <c r="P7">
-        <v>0.01077905290488651</v>
+        <v>0.3521558388602974</v>
       </c>
       <c r="Q7">
-        <v>0.1439972347650004</v>
+        <v>431.4487814675827</v>
       </c>
       <c r="R7">
-        <v>0.1439972347650004</v>
+        <v>3883.039033208244</v>
       </c>
       <c r="S7">
-        <v>0.0001036659272306871</v>
+        <v>0.2127351160629619</v>
       </c>
       <c r="T7">
-        <v>0.0001036659272306871</v>
+        <v>0.212735116062962</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.286753887339261</v>
+        <v>0.2896103333333334</v>
       </c>
       <c r="H8">
-        <v>0.286753887339261</v>
+        <v>0.868831</v>
       </c>
       <c r="I8">
-        <v>0.009617350257525114</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="J8">
-        <v>0.009617350257525114</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0444938181218727</v>
+        <v>32.8453</v>
       </c>
       <c r="N8">
-        <v>0.0444938181218727</v>
+        <v>98.5359</v>
       </c>
       <c r="O8">
-        <v>0.0009550705211933589</v>
+        <v>0.6312643453007685</v>
       </c>
       <c r="P8">
-        <v>0.0009550705211933589</v>
+        <v>0.6312643453007686</v>
       </c>
       <c r="Q8">
-        <v>0.01275877530901305</v>
+        <v>9.512338281433335</v>
       </c>
       <c r="R8">
-        <v>0.01275877530901305</v>
+        <v>85.6110445329</v>
       </c>
       <c r="S8">
-        <v>9.185247722953595E-06</v>
+        <v>0.004690263306452105</v>
       </c>
       <c r="T8">
-        <v>9.185247722953595E-06</v>
+        <v>0.004690263306452106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.286753887339261</v>
+        <v>0.2896103333333334</v>
       </c>
       <c r="H9">
-        <v>0.286753887339261</v>
+        <v>0.868831</v>
       </c>
       <c r="I9">
-        <v>0.009617350257525114</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="J9">
-        <v>0.009617350257525114</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.9055879148149</v>
+        <v>0.5268563333333334</v>
       </c>
       <c r="N9">
-        <v>15.9055879148149</v>
+        <v>1.580569</v>
       </c>
       <c r="O9">
-        <v>0.3414172750488532</v>
+        <v>0.0101258206906081</v>
       </c>
       <c r="P9">
-        <v>0.3414172750488532</v>
+        <v>0.0101258206906081</v>
       </c>
       <c r="Q9">
-        <v>4.560989164989543</v>
+        <v>0.1525830383154445</v>
       </c>
       <c r="R9">
-        <v>4.560989164989543</v>
+        <v>1.373247344839</v>
       </c>
       <c r="S9">
-        <v>0.003283529518114611</v>
+        <v>7.523435401732462E-05</v>
       </c>
       <c r="T9">
-        <v>0.003283529518114611</v>
+        <v>7.523435401732464E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.170153537639801</v>
+        <v>0.2896103333333334</v>
       </c>
       <c r="H10">
-        <v>0.170153537639801</v>
+        <v>0.868831</v>
       </c>
       <c r="I10">
-        <v>0.00570672706209168</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="J10">
-        <v>0.00570672706209168</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.1347004121565</v>
+        <v>0.046433</v>
       </c>
       <c r="N10">
-        <v>30.1347004121565</v>
+        <v>0.139299</v>
       </c>
       <c r="O10">
-        <v>0.6468486015250671</v>
+        <v>0.0008924107054997391</v>
       </c>
       <c r="P10">
-        <v>0.6468486015250671</v>
+        <v>0.0008924107054997394</v>
       </c>
       <c r="Q10">
-        <v>5.127525880843998</v>
+        <v>0.01344747660766667</v>
       </c>
       <c r="R10">
-        <v>5.127525880843998</v>
+        <v>0.121027289469</v>
       </c>
       <c r="S10">
-        <v>0.003691388419399258</v>
+        <v>6.630568029778708E-06</v>
       </c>
       <c r="T10">
-        <v>0.003691388419399258</v>
+        <v>6.63056802977871E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.170153537639801</v>
+        <v>0.2896103333333334</v>
       </c>
       <c r="H11">
-        <v>0.170153537639801</v>
+        <v>0.868831</v>
       </c>
       <c r="I11">
-        <v>0.00570672706209168</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="J11">
-        <v>0.00570672706209168</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.502163147991211</v>
+        <v>0.1197193333333333</v>
       </c>
       <c r="N11">
-        <v>0.502163147991211</v>
+        <v>0.359158</v>
       </c>
       <c r="O11">
-        <v>0.01077905290488651</v>
+        <v>0.002300924228931114</v>
       </c>
       <c r="P11">
-        <v>0.01077905290488651</v>
+        <v>0.002300924228931115</v>
       </c>
       <c r="Q11">
-        <v>0.08544483610304349</v>
+        <v>0.03467195603311111</v>
       </c>
       <c r="R11">
-        <v>0.08544483610304349</v>
+        <v>0.312047604298</v>
       </c>
       <c r="S11">
-        <v>6.151311291603375E-05</v>
+        <v>1.70957548326927E-05</v>
       </c>
       <c r="T11">
-        <v>6.151311291603375E-05</v>
+        <v>1.709575483269271E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.170153537639801</v>
+        <v>0.2896103333333334</v>
       </c>
       <c r="H12">
-        <v>0.170153537639801</v>
+        <v>0.868831</v>
       </c>
       <c r="I12">
-        <v>0.00570672706209168</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="J12">
-        <v>0.00570672706209168</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.0444938181218727</v>
+        <v>0.1696553333333334</v>
       </c>
       <c r="N12">
-        <v>0.0444938181218727</v>
+        <v>0.508966</v>
       </c>
       <c r="O12">
-        <v>0.0009550705211933589</v>
+        <v>0.003260660213895148</v>
       </c>
       <c r="P12">
-        <v>0.0009550705211933589</v>
+        <v>0.003260660213895149</v>
       </c>
       <c r="Q12">
-        <v>0.007570780556538526</v>
+        <v>0.04913393763844445</v>
       </c>
       <c r="R12">
-        <v>0.007570780556538526</v>
+        <v>0.442205438746</v>
       </c>
       <c r="S12">
-        <v>5.450326789500147E-06</v>
+        <v>2.422654640625094E-05</v>
       </c>
       <c r="T12">
-        <v>5.450326789500147E-06</v>
+        <v>2.422654640625095E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.170153537639801</v>
+        <v>0.2896103333333334</v>
       </c>
       <c r="H13">
-        <v>0.170153537639801</v>
+        <v>0.868831</v>
       </c>
       <c r="I13">
-        <v>0.00570672706209168</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="J13">
-        <v>0.00570672706209168</v>
+        <v>0.007429951242086087</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.9055879148149</v>
+        <v>18.323012</v>
       </c>
       <c r="N13">
-        <v>15.9055879148149</v>
+        <v>54.969036</v>
       </c>
       <c r="O13">
-        <v>0.3414172750488532</v>
+        <v>0.3521558388602973</v>
       </c>
       <c r="P13">
-        <v>0.3414172750488532</v>
+        <v>0.3521558388602974</v>
       </c>
       <c r="Q13">
-        <v>2.706392051946621</v>
+        <v>5.306533612990668</v>
       </c>
       <c r="R13">
-        <v>2.706392051946621</v>
+        <v>47.75880251691601</v>
       </c>
       <c r="S13">
-        <v>0.001948375202986889</v>
+        <v>0.002616500712347934</v>
       </c>
       <c r="T13">
-        <v>0.001948375202986889</v>
+        <v>0.002616500712347935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.156664920065733</v>
+        <v>0.1810763333333333</v>
       </c>
       <c r="H14">
-        <v>0.156664920065733</v>
+        <v>0.543229</v>
       </c>
       <c r="I14">
-        <v>0.005254336474109372</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="J14">
-        <v>0.005254336474109372</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.1347004121565</v>
+        <v>32.8453</v>
       </c>
       <c r="N14">
-        <v>30.1347004121565</v>
+        <v>98.5359</v>
       </c>
       <c r="O14">
-        <v>0.6468486015250671</v>
+        <v>0.6312643453007685</v>
       </c>
       <c r="P14">
-        <v>0.6468486015250671</v>
+        <v>0.6312643453007686</v>
       </c>
       <c r="Q14">
-        <v>4.72105043127531</v>
+        <v>5.947506491233333</v>
       </c>
       <c r="R14">
-        <v>4.72105043127531</v>
+        <v>53.5275584211</v>
       </c>
       <c r="S14">
-        <v>0.003398760200219799</v>
+        <v>0.002932546197938</v>
       </c>
       <c r="T14">
-        <v>0.003398760200219799</v>
+        <v>0.002932546197938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.156664920065733</v>
+        <v>0.1810763333333333</v>
       </c>
       <c r="H15">
-        <v>0.156664920065733</v>
+        <v>0.543229</v>
       </c>
       <c r="I15">
-        <v>0.005254336474109372</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="J15">
-        <v>0.005254336474109372</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.502163147991211</v>
+        <v>0.5268563333333334</v>
       </c>
       <c r="N15">
-        <v>0.502163147991211</v>
+        <v>1.580569</v>
       </c>
       <c r="O15">
-        <v>0.01077905290488651</v>
+        <v>0.0101258206906081</v>
       </c>
       <c r="P15">
-        <v>0.01077905290488651</v>
+        <v>0.0101258206906081</v>
       </c>
       <c r="Q15">
-        <v>0.07867134943999991</v>
+        <v>0.09540121303344444</v>
       </c>
       <c r="R15">
-        <v>0.07867134943999991</v>
+        <v>0.858610917301</v>
       </c>
       <c r="S15">
-        <v>5.663677083449974E-05</v>
+        <v>4.703962323913078E-05</v>
       </c>
       <c r="T15">
-        <v>5.663677083449974E-05</v>
+        <v>4.703962323913079E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,181 +1405,181 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.156664920065733</v>
+        <v>0.1810763333333333</v>
       </c>
       <c r="H16">
-        <v>0.156664920065733</v>
+        <v>0.543229</v>
       </c>
       <c r="I16">
-        <v>0.005254336474109372</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="J16">
-        <v>0.005254336474109372</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0444938181218727</v>
+        <v>0.046433</v>
       </c>
       <c r="N16">
-        <v>0.0444938181218727</v>
+        <v>0.139299</v>
       </c>
       <c r="O16">
-        <v>0.0009550705211933589</v>
+        <v>0.0008924107054997391</v>
       </c>
       <c r="P16">
-        <v>0.0009550705211933589</v>
+        <v>0.0008924107054997394</v>
       </c>
       <c r="Q16">
-        <v>0.006970620459482448</v>
+        <v>0.008407917385666666</v>
       </c>
       <c r="R16">
-        <v>0.006970620459482448</v>
+        <v>0.075671256471</v>
       </c>
       <c r="S16">
-        <v>5.018261874852913E-06</v>
+        <v>4.145704792127188E-06</v>
       </c>
       <c r="T16">
-        <v>5.018261874852913E-06</v>
+        <v>4.14570479212719E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.156664920065733</v>
+        <v>0.1810763333333333</v>
       </c>
       <c r="H17">
-        <v>0.156664920065733</v>
+        <v>0.543229</v>
       </c>
       <c r="I17">
-        <v>0.005254336474109372</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="J17">
-        <v>0.005254336474109372</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>15.9055879148149</v>
+        <v>0.1197193333333333</v>
       </c>
       <c r="N17">
-        <v>15.9055879148149</v>
+        <v>0.359158</v>
       </c>
       <c r="O17">
-        <v>0.3414172750488532</v>
+        <v>0.002300924228931114</v>
       </c>
       <c r="P17">
-        <v>0.3414172750488532</v>
+        <v>0.002300924228931115</v>
       </c>
       <c r="Q17">
-        <v>2.491847659272965</v>
+        <v>0.02167833790911111</v>
       </c>
       <c r="R17">
-        <v>2.491847659272965</v>
+        <v>0.195105041182</v>
       </c>
       <c r="S17">
-        <v>0.001793921241180221</v>
+        <v>1.068897150540073E-05</v>
       </c>
       <c r="T17">
-        <v>0.001793921241180221</v>
+        <v>1.068897150540074E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.187161035883044</v>
+        <v>0.1810763333333333</v>
       </c>
       <c r="H18">
-        <v>0.187161035883044</v>
+        <v>0.543229</v>
       </c>
       <c r="I18">
-        <v>0.006277136304411709</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="J18">
-        <v>0.006277136304411709</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>30.1347004121565</v>
+        <v>0.1696553333333334</v>
       </c>
       <c r="N18">
-        <v>30.1347004121565</v>
+        <v>0.508966</v>
       </c>
       <c r="O18">
-        <v>0.6468486015250671</v>
+        <v>0.003260660213895148</v>
       </c>
       <c r="P18">
-        <v>0.6468486015250671</v>
+        <v>0.003260660213895149</v>
       </c>
       <c r="Q18">
-        <v>5.640041745164404</v>
+        <v>0.03072056569044444</v>
       </c>
       <c r="R18">
-        <v>5.640041745164404</v>
+        <v>0.276485091214</v>
       </c>
       <c r="S18">
-        <v>0.004060356840090942</v>
+        <v>1.514743670255929E-05</v>
       </c>
       <c r="T18">
-        <v>0.004060356840090942</v>
+        <v>1.51474367025593E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.187161035883044</v>
+        <v>0.1810763333333333</v>
       </c>
       <c r="H19">
-        <v>0.187161035883044</v>
+        <v>0.543229</v>
       </c>
       <c r="I19">
-        <v>0.006277136304411709</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="J19">
-        <v>0.006277136304411709</v>
+        <v>0.004645512168980138</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.502163147991211</v>
+        <v>18.323012</v>
       </c>
       <c r="N19">
-        <v>0.502163147991211</v>
+        <v>54.969036</v>
       </c>
       <c r="O19">
-        <v>0.01077905290488651</v>
+        <v>0.3521558388602973</v>
       </c>
       <c r="P19">
-        <v>0.01077905290488651</v>
+        <v>0.3521558388602974</v>
       </c>
       <c r="Q19">
-        <v>0.09398537496032537</v>
+        <v>3.317863828582666</v>
       </c>
       <c r="R19">
-        <v>0.09398537496032537</v>
+        <v>29.860774457244</v>
       </c>
       <c r="S19">
-        <v>6.766158431643758E-05</v>
+        <v>0.00163594423480292</v>
       </c>
       <c r="T19">
-        <v>6.766158431643758E-05</v>
+        <v>0.00163594423480292</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.187161035883044</v>
+        <v>0.1696663333333333</v>
       </c>
       <c r="H20">
-        <v>0.187161035883044</v>
+        <v>0.508999</v>
       </c>
       <c r="I20">
-        <v>0.006277136304411709</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="J20">
-        <v>0.006277136304411709</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0444938181218727</v>
+        <v>32.8453</v>
       </c>
       <c r="N20">
-        <v>0.0444938181218727</v>
+        <v>98.5359</v>
       </c>
       <c r="O20">
-        <v>0.0009550705211933589</v>
+        <v>0.6312643453007685</v>
       </c>
       <c r="P20">
-        <v>0.0009550705211933589</v>
+        <v>0.6312643453007686</v>
       </c>
       <c r="Q20">
-        <v>0.00832750909008145</v>
+        <v>5.572741618233334</v>
       </c>
       <c r="R20">
-        <v>0.00832750909008145</v>
+        <v>50.1546745641</v>
       </c>
       <c r="S20">
-        <v>5.995107841856246E-06</v>
+        <v>0.002747760304041655</v>
       </c>
       <c r="T20">
-        <v>5.995107841856246E-06</v>
+        <v>0.002747760304041656</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.187161035883044</v>
+        <v>0.1696663333333333</v>
       </c>
       <c r="H21">
-        <v>0.187161035883044</v>
+        <v>0.508999</v>
       </c>
       <c r="I21">
-        <v>0.006277136304411709</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="J21">
-        <v>0.006277136304411709</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.9055879148149</v>
+        <v>0.5268563333333334</v>
       </c>
       <c r="N21">
-        <v>15.9055879148149</v>
+        <v>1.580569</v>
       </c>
       <c r="O21">
-        <v>0.3414172750488532</v>
+        <v>0.0101258206906081</v>
       </c>
       <c r="P21">
-        <v>0.3414172750488532</v>
+        <v>0.0101258206906081</v>
       </c>
       <c r="Q21">
-        <v>2.976906310465583</v>
+        <v>0.08938978227011111</v>
       </c>
       <c r="R21">
-        <v>2.976906310465583</v>
+        <v>0.804508040431</v>
       </c>
       <c r="S21">
-        <v>0.002143122772162474</v>
+        <v>4.407555780176376E-05</v>
       </c>
       <c r="T21">
-        <v>0.002143122772162474</v>
+        <v>4.407555780176378E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.4006633952832</v>
+        <v>0.1696663333333333</v>
       </c>
       <c r="H22">
-        <v>11.4006633952832</v>
+        <v>0.508999</v>
       </c>
       <c r="I22">
-        <v>0.3823633362321713</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="J22">
-        <v>0.3823633362321713</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>30.1347004121565</v>
+        <v>0.046433</v>
       </c>
       <c r="N22">
-        <v>30.1347004121565</v>
+        <v>0.139299</v>
       </c>
       <c r="O22">
-        <v>0.6468486015250671</v>
+        <v>0.0008924107054997391</v>
       </c>
       <c r="P22">
-        <v>0.6468486015250671</v>
+        <v>0.0008924107054997394</v>
       </c>
       <c r="Q22">
-        <v>343.5555759166982</v>
+        <v>0.007878116855666667</v>
       </c>
       <c r="R22">
-        <v>343.5555759166982</v>
+        <v>0.070903051701</v>
       </c>
       <c r="S22">
-        <v>0.247331189316239</v>
+        <v>3.884475227736271E-06</v>
       </c>
       <c r="T22">
-        <v>0.247331189316239</v>
+        <v>3.884475227736273E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.4006633952832</v>
+        <v>0.1696663333333333</v>
       </c>
       <c r="H23">
-        <v>11.4006633952832</v>
+        <v>0.508999</v>
       </c>
       <c r="I23">
-        <v>0.3823633362321713</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="J23">
-        <v>0.3823633362321713</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.502163147991211</v>
+        <v>0.1197193333333333</v>
       </c>
       <c r="N23">
-        <v>0.502163147991211</v>
+        <v>0.359158</v>
       </c>
       <c r="O23">
-        <v>0.01077905290488651</v>
+        <v>0.002300924228931114</v>
       </c>
       <c r="P23">
-        <v>0.01077905290488651</v>
+        <v>0.002300924228931115</v>
       </c>
       <c r="Q23">
-        <v>5.72499301976358</v>
+        <v>0.02031234031577778</v>
       </c>
       <c r="R23">
-        <v>5.72499301976358</v>
+        <v>0.182811062842</v>
       </c>
       <c r="S23">
-        <v>0.004121514630135481</v>
+        <v>1.001543696540035E-05</v>
       </c>
       <c r="T23">
-        <v>0.004121514630135481</v>
+        <v>1.001543696540036E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,60 +1898,60 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.4006633952832</v>
+        <v>0.1696663333333333</v>
       </c>
       <c r="H24">
-        <v>11.4006633952832</v>
+        <v>0.508999</v>
       </c>
       <c r="I24">
-        <v>0.3823633362321713</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="J24">
-        <v>0.3823633362321713</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.0444938181218727</v>
+        <v>0.1696553333333334</v>
       </c>
       <c r="N24">
-        <v>0.0444938181218727</v>
+        <v>0.508966</v>
       </c>
       <c r="O24">
-        <v>0.0009550705211933589</v>
+        <v>0.003260660213895148</v>
       </c>
       <c r="P24">
-        <v>0.0009550705211933589</v>
+        <v>0.003260660213895149</v>
       </c>
       <c r="Q24">
-        <v>0.5072590435784223</v>
+        <v>0.02878479833711111</v>
       </c>
       <c r="R24">
-        <v>0.5072590435784223</v>
+        <v>0.259063185034</v>
       </c>
       <c r="S24">
-        <v>0.0003651839508204913</v>
+        <v>1.419296490829094E-05</v>
       </c>
       <c r="T24">
-        <v>0.0003651839508204913</v>
+        <v>1.419296490829094E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.4006633952832</v>
+        <v>0.1696663333333333</v>
       </c>
       <c r="H25">
-        <v>11.4006633952832</v>
+        <v>0.508999</v>
       </c>
       <c r="I25">
-        <v>0.3823633362321713</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="J25">
-        <v>0.3823633362321713</v>
+        <v>0.004352788692243459</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.9055879148149</v>
+        <v>18.323012</v>
       </c>
       <c r="N25">
-        <v>15.9055879148149</v>
+        <v>54.969036</v>
       </c>
       <c r="O25">
-        <v>0.3414172750488532</v>
+        <v>0.3521558388602973</v>
       </c>
       <c r="P25">
-        <v>0.3414172750488532</v>
+        <v>0.3521558388602974</v>
       </c>
       <c r="Q25">
-        <v>181.3342539208891</v>
+        <v>3.108798261662667</v>
       </c>
       <c r="R25">
-        <v>181.3342539208891</v>
+        <v>27.979184354964</v>
       </c>
       <c r="S25">
-        <v>0.1305454483349763</v>
+        <v>0.001532859953298612</v>
       </c>
       <c r="T25">
-        <v>0.1305454483349763</v>
+        <v>0.001532859953298612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.229552</v>
+      </c>
+      <c r="H26">
+        <v>0.6886559999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.005889155086052449</v>
+      </c>
+      <c r="J26">
+        <v>0.00588915508605245</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>32.8453</v>
+      </c>
+      <c r="N26">
+        <v>98.5359</v>
+      </c>
+      <c r="O26">
+        <v>0.6312643453007685</v>
+      </c>
+      <c r="P26">
+        <v>0.6312643453007686</v>
+      </c>
+      <c r="Q26">
+        <v>7.5397043056</v>
+      </c>
+      <c r="R26">
+        <v>67.85733875039999</v>
+      </c>
+      <c r="S26">
+        <v>0.00371761362977159</v>
+      </c>
+      <c r="T26">
+        <v>0.003717613629771591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.229552</v>
+      </c>
+      <c r="H27">
+        <v>0.6886559999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.005889155086052449</v>
+      </c>
+      <c r="J27">
+        <v>0.00588915508605245</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.5268563333333334</v>
+      </c>
+      <c r="N27">
+        <v>1.580569</v>
+      </c>
+      <c r="O27">
+        <v>0.0101258206906081</v>
+      </c>
+      <c r="P27">
+        <v>0.0101258206906081</v>
+      </c>
+      <c r="Q27">
+        <v>0.1209409250293333</v>
+      </c>
+      <c r="R27">
+        <v>1.088468325264</v>
+      </c>
+      <c r="S27">
+        <v>5.963252842054979E-05</v>
+      </c>
+      <c r="T27">
+        <v>5.963252842054982E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.229552</v>
+      </c>
+      <c r="H28">
+        <v>0.6886559999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.005889155086052449</v>
+      </c>
+      <c r="J28">
+        <v>0.00588915508605245</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.046433</v>
+      </c>
+      <c r="N28">
+        <v>0.139299</v>
+      </c>
+      <c r="O28">
+        <v>0.0008924107054997391</v>
+      </c>
+      <c r="P28">
+        <v>0.0008924107054997394</v>
+      </c>
+      <c r="Q28">
+        <v>0.010658788016</v>
+      </c>
+      <c r="R28">
+        <v>0.095929092144</v>
+      </c>
+      <c r="S28">
+        <v>5.255545045141442E-06</v>
+      </c>
+      <c r="T28">
+        <v>5.255545045141446E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.229552</v>
+      </c>
+      <c r="H29">
+        <v>0.6886559999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.005889155086052449</v>
+      </c>
+      <c r="J29">
+        <v>0.00588915508605245</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.1197193333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.359158</v>
+      </c>
+      <c r="O29">
+        <v>0.002300924228931114</v>
+      </c>
+      <c r="P29">
+        <v>0.002300924228931115</v>
+      </c>
+      <c r="Q29">
+        <v>0.02748181240533333</v>
+      </c>
+      <c r="R29">
+        <v>0.247336311648</v>
+      </c>
+      <c r="S29">
+        <v>1.355049962543098E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.355049962543099E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.229552</v>
+      </c>
+      <c r="H30">
+        <v>0.6886559999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.005889155086052449</v>
+      </c>
+      <c r="J30">
+        <v>0.00588915508605245</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1696553333333334</v>
+      </c>
+      <c r="N30">
+        <v>0.508966</v>
+      </c>
+      <c r="O30">
+        <v>0.003260660213895148</v>
+      </c>
+      <c r="P30">
+        <v>0.003260660213895149</v>
+      </c>
+      <c r="Q30">
+        <v>0.03894472107733334</v>
+      </c>
+      <c r="R30">
+        <v>0.350502489696</v>
+      </c>
+      <c r="S30">
+        <v>1.920253368254948E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.920253368254949E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.229552</v>
+      </c>
+      <c r="H31">
+        <v>0.6886559999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.005889155086052449</v>
+      </c>
+      <c r="J31">
+        <v>0.00588915508605245</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>18.323012</v>
+      </c>
+      <c r="N31">
+        <v>54.969036</v>
+      </c>
+      <c r="O31">
+        <v>0.3521558388602973</v>
+      </c>
+      <c r="P31">
+        <v>0.3521558388602974</v>
+      </c>
+      <c r="Q31">
+        <v>4.206084050624</v>
+      </c>
+      <c r="R31">
+        <v>37.854756455616</v>
+      </c>
+      <c r="S31">
+        <v>0.002073900349507187</v>
+      </c>
+      <c r="T31">
+        <v>0.002073900349507188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>14.562035</v>
+      </c>
+      <c r="H32">
+        <v>43.686105</v>
+      </c>
+      <c r="I32">
+        <v>0.3735889144225438</v>
+      </c>
+      <c r="J32">
+        <v>0.3735889144225439</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>32.8453</v>
+      </c>
+      <c r="N32">
+        <v>98.5359</v>
+      </c>
+      <c r="O32">
+        <v>0.6312643453007685</v>
+      </c>
+      <c r="P32">
+        <v>0.6312643453007686</v>
+      </c>
+      <c r="Q32">
+        <v>478.2944081855</v>
+      </c>
+      <c r="R32">
+        <v>4304.6496736695</v>
+      </c>
+      <c r="S32">
+        <v>0.235833361474572</v>
+      </c>
+      <c r="T32">
+        <v>0.235833361474572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>14.562035</v>
+      </c>
+      <c r="H33">
+        <v>43.686105</v>
+      </c>
+      <c r="I33">
+        <v>0.3735889144225438</v>
+      </c>
+      <c r="J33">
+        <v>0.3735889144225439</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.5268563333333334</v>
+      </c>
+      <c r="N33">
+        <v>1.580569</v>
+      </c>
+      <c r="O33">
+        <v>0.0101258206906081</v>
+      </c>
+      <c r="P33">
+        <v>0.0101258206906081</v>
+      </c>
+      <c r="Q33">
+        <v>7.672100365971668</v>
+      </c>
+      <c r="R33">
+        <v>69.048903293745</v>
+      </c>
+      <c r="S33">
+        <v>0.003782894359441612</v>
+      </c>
+      <c r="T33">
+        <v>0.003782894359441613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>14.562035</v>
+      </c>
+      <c r="H34">
+        <v>43.686105</v>
+      </c>
+      <c r="I34">
+        <v>0.3735889144225438</v>
+      </c>
+      <c r="J34">
+        <v>0.3735889144225439</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.046433</v>
+      </c>
+      <c r="N34">
+        <v>0.139299</v>
+      </c>
+      <c r="O34">
+        <v>0.0008924107054997391</v>
+      </c>
+      <c r="P34">
+        <v>0.0008924107054997394</v>
+      </c>
+      <c r="Q34">
+        <v>0.676158971155</v>
+      </c>
+      <c r="R34">
+        <v>6.085430740395</v>
+      </c>
+      <c r="S34">
+        <v>0.000333394746686704</v>
+      </c>
+      <c r="T34">
+        <v>0.0003333947466867042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>14.562035</v>
+      </c>
+      <c r="H35">
+        <v>43.686105</v>
+      </c>
+      <c r="I35">
+        <v>0.3735889144225438</v>
+      </c>
+      <c r="J35">
+        <v>0.3735889144225439</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.1197193333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.359158</v>
+      </c>
+      <c r="O35">
+        <v>0.002300924228931114</v>
+      </c>
+      <c r="P35">
+        <v>0.002300924228931115</v>
+      </c>
+      <c r="Q35">
+        <v>1.743357122176667</v>
+      </c>
+      <c r="R35">
+        <v>15.69021409959</v>
+      </c>
+      <c r="S35">
+        <v>0.0008595997848549037</v>
+      </c>
+      <c r="T35">
+        <v>0.0008595997848549041</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>14.562035</v>
+      </c>
+      <c r="H36">
+        <v>43.686105</v>
+      </c>
+      <c r="I36">
+        <v>0.3735889144225438</v>
+      </c>
+      <c r="J36">
+        <v>0.3735889144225439</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1696553333333334</v>
+      </c>
+      <c r="N36">
+        <v>0.508966</v>
+      </c>
+      <c r="O36">
+        <v>0.003260660213895148</v>
+      </c>
+      <c r="P36">
+        <v>0.003260660213895149</v>
+      </c>
+      <c r="Q36">
+        <v>2.470526901936667</v>
+      </c>
+      <c r="R36">
+        <v>22.23474211743</v>
+      </c>
+      <c r="S36">
+        <v>0.001218146509609868</v>
+      </c>
+      <c r="T36">
+        <v>0.001218146509609869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>14.562035</v>
+      </c>
+      <c r="H37">
+        <v>43.686105</v>
+      </c>
+      <c r="I37">
+        <v>0.3735889144225438</v>
+      </c>
+      <c r="J37">
+        <v>0.3735889144225439</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>18.323012</v>
+      </c>
+      <c r="N37">
+        <v>54.969036</v>
+      </c>
+      <c r="O37">
+        <v>0.3521558388602973</v>
+      </c>
+      <c r="P37">
+        <v>0.3521558388602974</v>
+      </c>
+      <c r="Q37">
+        <v>266.82034204942</v>
+      </c>
+      <c r="R37">
+        <v>2401.38307844478</v>
+      </c>
+      <c r="S37">
+        <v>0.1315615175473787</v>
+      </c>
+      <c r="T37">
+        <v>0.1315615175473788</v>
       </c>
     </row>
   </sheetData>
